--- a/就職/JOB.xlsx
+++ b/就職/JOB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kosumosu\Desktop\就職\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Research\就職\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909E0F62-D6B5-4E2C-803C-8EE391EBF1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41C5DC1-A906-4F22-96FC-4A340BF0D3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="-14110" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -226,30 +226,30 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -536,7 +536,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:H12"/>
+      <selection activeCell="G7" sqref="G7:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -545,124 +545,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4">
+      <c r="B3" s="1"/>
+      <c r="C3" s="2">
         <v>45317</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="4">
+      <c r="D3" s="2"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="2">
         <v>45376</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4">
+      <c r="B5" s="1"/>
+      <c r="C5" s="2">
         <v>45343</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="3" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
@@ -675,14 +675,14 @@
       <c r="D7" s="8"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
@@ -691,14 +691,14 @@
       <c r="D8" s="8"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
@@ -709,504 +709,504 @@
         <v>20</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L2" xr:uid="{00000000-0001-0000-0000-000000000000}">
@@ -1216,37 +1216,94 @@
     <filterColumn colId="6" showButton="0"/>
     <filterColumn colId="8" showButton="0"/>
     <filterColumn colId="10" showButton="0"/>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:L22">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:L22">
       <sortCondition ref="C1:C2"/>
     </sortState>
   </autoFilter>
   <mergeCells count="133">
-    <mergeCell ref="M33:N34"/>
-    <mergeCell ref="K35:L36"/>
-    <mergeCell ref="M35:N36"/>
-    <mergeCell ref="K37:L38"/>
-    <mergeCell ref="M37:N38"/>
-    <mergeCell ref="M25:N26"/>
-    <mergeCell ref="K27:L28"/>
-    <mergeCell ref="M27:N28"/>
-    <mergeCell ref="K29:L30"/>
-    <mergeCell ref="M29:N30"/>
-    <mergeCell ref="K31:L32"/>
-    <mergeCell ref="M31:N32"/>
-    <mergeCell ref="M17:N18"/>
-    <mergeCell ref="K19:L20"/>
-    <mergeCell ref="M19:N20"/>
-    <mergeCell ref="K21:L22"/>
-    <mergeCell ref="M21:N22"/>
-    <mergeCell ref="K23:L24"/>
-    <mergeCell ref="M23:N24"/>
-    <mergeCell ref="M9:N10"/>
-    <mergeCell ref="K11:L12"/>
-    <mergeCell ref="M11:N12"/>
-    <mergeCell ref="K13:L14"/>
-    <mergeCell ref="M13:N14"/>
-    <mergeCell ref="K15:L16"/>
-    <mergeCell ref="M15:N16"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:J2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="I3:J4"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:D6"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="I5:J6"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="G9:H10"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E11:F12"/>
+    <mergeCell ref="G11:H12"/>
+    <mergeCell ref="I11:J12"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="E13:F14"/>
+    <mergeCell ref="G13:H14"/>
+    <mergeCell ref="I13:J14"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="G15:H16"/>
+    <mergeCell ref="I15:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="G17:H18"/>
+    <mergeCell ref="I17:J18"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="G19:H20"/>
+    <mergeCell ref="I19:J20"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="I21:J22"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="E23:F24"/>
+    <mergeCell ref="G23:H24"/>
+    <mergeCell ref="I23:J24"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="E25:F26"/>
+    <mergeCell ref="G25:H26"/>
+    <mergeCell ref="I25:J26"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="E27:F28"/>
+    <mergeCell ref="G27:H28"/>
+    <mergeCell ref="I27:J28"/>
+    <mergeCell ref="E35:F36"/>
+    <mergeCell ref="G35:H36"/>
+    <mergeCell ref="I35:J36"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="E29:F30"/>
+    <mergeCell ref="G29:H30"/>
+    <mergeCell ref="I29:J30"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:F32"/>
+    <mergeCell ref="G31:H32"/>
+    <mergeCell ref="I31:J32"/>
     <mergeCell ref="M1:N2"/>
     <mergeCell ref="K3:L4"/>
     <mergeCell ref="M3:N4"/>
@@ -1271,89 +1328,32 @@
     <mergeCell ref="I33:J34"/>
     <mergeCell ref="A35:B36"/>
     <mergeCell ref="C35:D36"/>
-    <mergeCell ref="E35:F36"/>
-    <mergeCell ref="G35:H36"/>
-    <mergeCell ref="I35:J36"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="E29:F30"/>
-    <mergeCell ref="G29:H30"/>
-    <mergeCell ref="I29:J30"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:F32"/>
-    <mergeCell ref="G31:H32"/>
-    <mergeCell ref="I31:J32"/>
-    <mergeCell ref="A25:B26"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="E25:F26"/>
-    <mergeCell ref="G25:H26"/>
-    <mergeCell ref="I25:J26"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="E27:F28"/>
-    <mergeCell ref="G27:H28"/>
-    <mergeCell ref="I27:J28"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="G21:H22"/>
-    <mergeCell ref="I21:J22"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="E23:F24"/>
-    <mergeCell ref="G23:H24"/>
-    <mergeCell ref="I23:J24"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="G17:H18"/>
-    <mergeCell ref="I17:J18"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:F20"/>
-    <mergeCell ref="G19:H20"/>
-    <mergeCell ref="I19:J20"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="E13:F14"/>
-    <mergeCell ref="G13:H14"/>
-    <mergeCell ref="I13:J14"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="E15:F16"/>
-    <mergeCell ref="G15:H16"/>
-    <mergeCell ref="I15:J16"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="E9:F10"/>
-    <mergeCell ref="G9:H10"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E11:F12"/>
-    <mergeCell ref="G11:H12"/>
-    <mergeCell ref="I11:J12"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:D6"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="G5:H6"/>
-    <mergeCell ref="I5:J6"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="I1:J2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="I3:J4"/>
+    <mergeCell ref="M17:N18"/>
+    <mergeCell ref="K19:L20"/>
+    <mergeCell ref="M19:N20"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="M21:N22"/>
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="M23:N24"/>
+    <mergeCell ref="M9:N10"/>
+    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="M11:N12"/>
+    <mergeCell ref="K13:L14"/>
+    <mergeCell ref="M13:N14"/>
+    <mergeCell ref="K15:L16"/>
+    <mergeCell ref="M15:N16"/>
+    <mergeCell ref="M33:N34"/>
+    <mergeCell ref="K35:L36"/>
+    <mergeCell ref="M35:N36"/>
+    <mergeCell ref="K37:L38"/>
+    <mergeCell ref="M37:N38"/>
+    <mergeCell ref="M25:N26"/>
+    <mergeCell ref="K27:L28"/>
+    <mergeCell ref="M27:N28"/>
+    <mergeCell ref="K29:L30"/>
+    <mergeCell ref="M29:N30"/>
+    <mergeCell ref="K31:L32"/>
+    <mergeCell ref="M31:N32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
